--- a/data/trans_orig/P1801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BE4CC5-01CC-4EDA-8F28-025285592B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6720D4E4-29F4-47D9-ACFC-761282E11917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4607B68-8AE6-4105-98C8-04D0ED2C7BA3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7279C9A-6A83-4F2A-8BDF-E1F57579C4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="215">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>46,28%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>53,72%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,106 +138,100 @@
     <t>49,89%</t>
   </si>
   <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>55,53%</t>
   </si>
   <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>58,22%</t>
   </si>
   <si>
     <t>50,11%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>44,47%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
+    <t>41,78%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>56,28%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>50,44%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -246,55 +240,49 @@
     <t>46,34%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>55,6%</t>
   </si>
   <si>
     <t>53,66%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>44,4%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -303,109 +291,97 @@
     <t>46,89%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>43,39%</t>
   </si>
   <si>
     <t>53,31%</t>
   </si>
   <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>50,27%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>53,11%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
+    <t>56,61%</t>
   </si>
   <si>
     <t>46,69%</t>
   </si>
   <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>51,9%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>48,07%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -417,319 +393,295 @@
     <t>42,43%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
+    <t>32,84%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>62,23%</t>
   </si>
   <si>
     <t>49,23%</t>
   </si>
   <si>
-    <t>43,59%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>44,17%</t>
   </si>
   <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>48,19%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845BB8BD-C074-4D9A-B07C-050E94B25416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F990CDFB-141A-460B-A232-FA973059D36A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1453,10 +1405,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,13 +1423,13 @@
         <v>279753</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>218</v>
@@ -1486,13 +1438,13 @@
         <v>217334</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>483</v>
@@ -1501,13 +1453,13 @@
         <v>497087</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,7 +1515,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1575,13 +1527,13 @@
         <v>454680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -1590,13 +1542,13 @@
         <v>586986</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>969</v>
@@ -1605,13 +1557,13 @@
         <v>1041666</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,10 +1581,10 @@
         <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>436</v>
@@ -1641,13 +1593,13 @@
         <v>455927</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -1656,13 +1608,13 @@
         <v>1023678</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,7 +1670,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1730,13 +1682,13 @@
         <v>352014</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>433</v>
@@ -1745,13 +1697,13 @@
         <v>469220</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>756</v>
@@ -1760,13 +1712,13 @@
         <v>821234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1733,13 @@
         <v>407538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>303</v>
@@ -1796,13 +1748,13 @@
         <v>315791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -1811,13 +1763,13 @@
         <v>723329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,7 +1825,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1885,13 +1837,13 @@
         <v>439620</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>500</v>
@@ -1900,13 +1852,13 @@
         <v>556399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>942</v>
@@ -1915,13 +1867,13 @@
         <v>996019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1888,13 @@
         <v>497947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>459</v>
@@ -1951,13 +1903,13 @@
         <v>487380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>949</v>
@@ -1966,13 +1918,13 @@
         <v>985327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +1992,13 @@
         <v>1578751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>1878</v>
@@ -2055,13 +2007,13 @@
         <v>2024764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>3397</v>
@@ -2070,13 +2022,13 @@
         <v>3603515</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2043,13 @@
         <v>1815599</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>1460</v>
@@ -2106,13 +2058,13 @@
         <v>1519778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>3172</v>
@@ -2121,13 +2073,13 @@
         <v>3335377</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,7 +2135,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3B9F70-A7DB-4046-8E40-07E2DD46508B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF215AD0-AA81-47A9-B4A5-FF6852F68C25}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2221,7 +2173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2328,13 +2280,13 @@
         <v>43269</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
         <v>141</v>
@@ -2343,13 +2295,13 @@
         <v>71300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -2358,13 +2310,13 @@
         <v>114569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2331,13 @@
         <v>58713</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>102</v>
@@ -2394,13 +2346,13 @@
         <v>59433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="M5" s="7">
         <v>165</v>
@@ -2409,13 +2361,13 @@
         <v>118146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2435,13 @@
         <v>291971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>604</v>
@@ -2498,13 +2450,13 @@
         <v>334553</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -2513,13 +2465,13 @@
         <v>626523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2486,13 @@
         <v>257852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>391</v>
@@ -2549,13 +2501,13 @@
         <v>257840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>634</v>
@@ -2564,13 +2516,13 @@
         <v>515693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,7 +2578,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2638,13 +2590,13 @@
         <v>539742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>939</v>
@@ -2653,13 +2605,13 @@
         <v>611589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>1461</v>
@@ -2668,13 +2620,13 @@
         <v>1151331</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2641,13 @@
         <v>498476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>576</v>
@@ -2704,13 +2656,13 @@
         <v>446911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>1017</v>
@@ -2719,13 +2671,13 @@
         <v>945386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2733,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2793,13 +2745,13 @@
         <v>297552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>545</v>
@@ -2808,13 +2760,13 @@
         <v>468453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>860</v>
@@ -2823,13 +2775,13 @@
         <v>766006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2796,13 @@
         <v>430094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
@@ -2859,13 +2811,13 @@
         <v>404393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>859</v>
@@ -2874,13 +2826,13 @@
         <v>834486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2888,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2948,28 +2900,28 @@
         <v>508803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>982</v>
       </c>
       <c r="I16" s="7">
-        <v>668370</v>
+        <v>668371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>1569</v>
@@ -2978,13 +2930,13 @@
         <v>1177174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2951,13 @@
         <v>455536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>575</v>
@@ -3014,13 +2966,13 @@
         <v>478827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>993</v>
@@ -3029,13 +2981,13 @@
         <v>934363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3014,7 @@
         <v>1557</v>
       </c>
       <c r="I18" s="7">
-        <v>1147197</v>
+        <v>1147198</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3103,13 +3055,13 @@
         <v>1681338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>3211</v>
@@ -3118,13 +3070,13 @@
         <v>2154264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>5059</v>
@@ -3133,13 +3085,13 @@
         <v>3835602</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3106,13 @@
         <v>1700670</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>2143</v>
@@ -3169,13 +3121,13 @@
         <v>1647404</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>3668</v>
@@ -3184,13 +3136,13 @@
         <v>3348074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3198,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6720D4E4-29F4-47D9-ACFC-761282E11917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF7D284-3C2C-4D03-BC8A-86153E7C895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7279C9A-6A83-4F2A-8BDF-E1F57579C4CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28D1D98E-08F1-471A-B6BD-6E189871DFB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="215">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="217">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,28 +75,28 @@
     <t>46,28%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,184 +105,190 @@
     <t>53,72%</t>
   </si>
   <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>49,89%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
   </si>
   <si>
     <t>55,53%</t>
   </si>
   <si>
-    <t>58,22%</t>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>50,11%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>44,47%</t>
   </si>
   <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
   </si>
   <si>
     <t>56,28%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
   </si>
   <si>
     <t>50,44%</t>
   </si>
   <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>46,34%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
   </si>
   <si>
     <t>53,66%</t>
   </si>
   <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -291,298 +297,298 @@
     <t>46,89%</t>
   </si>
   <si>
-    <t>43,39%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
   </si>
   <si>
     <t>53,31%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>47,86%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>52,14%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
   </si>
   <si>
     <t>57,06%</t>
@@ -1093,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F990CDFB-141A-460B-A232-FA973059D36A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AC7173-F643-4164-AC2E-728E54C477D5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1405,10 +1411,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,13 +1429,13 @@
         <v>279753</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>218</v>
@@ -1438,13 +1444,13 @@
         <v>217334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>483</v>
@@ -1453,13 +1459,13 @@
         <v>497087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,7 +1521,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1527,13 +1533,13 @@
         <v>454680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -1542,13 +1548,13 @@
         <v>586986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>969</v>
@@ -1557,13 +1563,13 @@
         <v>1041666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,10 +1587,10 @@
         <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>436</v>
@@ -1593,13 +1599,13 @@
         <v>455927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -1608,13 +1614,13 @@
         <v>1023678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,7 +1676,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1682,13 +1688,13 @@
         <v>352014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>433</v>
@@ -1697,13 +1703,13 @@
         <v>469220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>756</v>
@@ -1712,13 +1718,13 @@
         <v>821234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1739,13 @@
         <v>407538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>303</v>
@@ -1748,13 +1754,13 @@
         <v>315791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -1763,13 +1769,13 @@
         <v>723329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,7 +1831,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1837,13 +1843,13 @@
         <v>439620</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>500</v>
@@ -1852,13 +1858,13 @@
         <v>556399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>942</v>
@@ -1867,13 +1873,13 @@
         <v>996019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1894,13 @@
         <v>497947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>459</v>
@@ -1903,13 +1909,13 @@
         <v>487380</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>949</v>
@@ -1918,7 +1924,7 @@
         <v>985327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>97</v>
@@ -2049,7 +2055,7 @@
         <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>1460</v>
@@ -2058,13 +2064,13 @@
         <v>1519778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>3172</v>
@@ -2073,13 +2079,13 @@
         <v>3335377</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,7 +2141,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF215AD0-AA81-47A9-B4A5-FF6852F68C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E33DCC-8F1D-4866-ABC2-CF4920D1E6D0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2173,7 +2179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2280,10 +2286,10 @@
         <v>43269</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
@@ -2295,13 +2301,13 @@
         <v>71300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -2310,13 +2316,13 @@
         <v>114569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2337,13 @@
         <v>58713</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>102</v>
@@ -2346,13 +2352,13 @@
         <v>59433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>165</v>
@@ -2361,13 +2367,13 @@
         <v>118146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2441,13 @@
         <v>291971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>604</v>
@@ -2450,13 +2456,13 @@
         <v>334553</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -2465,13 +2471,13 @@
         <v>626523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2492,13 @@
         <v>257852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>391</v>
@@ -2501,13 +2507,13 @@
         <v>257840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>634</v>
@@ -2516,13 +2522,13 @@
         <v>515693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,7 +2584,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2590,13 +2596,13 @@
         <v>539742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>939</v>
@@ -2605,13 +2611,13 @@
         <v>611589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>1461</v>
@@ -2620,13 +2626,13 @@
         <v>1151331</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2647,13 @@
         <v>498476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>576</v>
@@ -2656,13 +2662,13 @@
         <v>446911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>1017</v>
@@ -2671,13 +2677,13 @@
         <v>945386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,7 +2739,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2745,13 +2751,13 @@
         <v>297552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>545</v>
@@ -2760,13 +2766,13 @@
         <v>468453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>860</v>
@@ -2775,13 +2781,13 @@
         <v>766006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2802,13 @@
         <v>430094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
@@ -2811,13 +2817,13 @@
         <v>404393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>859</v>
@@ -2826,13 +2832,13 @@
         <v>834486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2894,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2900,13 +2906,13 @@
         <v>508803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>982</v>
@@ -2915,13 +2921,13 @@
         <v>668371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>1569</v>
@@ -2930,13 +2936,13 @@
         <v>1177174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2957,13 @@
         <v>455536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>575</v>
@@ -2966,13 +2972,13 @@
         <v>478827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>993</v>
@@ -2981,13 +2987,13 @@
         <v>934363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3061,13 @@
         <v>1681338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>3211</v>
@@ -3070,13 +3076,13 @@
         <v>2154264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>5059</v>
@@ -3085,13 +3091,13 @@
         <v>3835602</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3112,13 @@
         <v>1700670</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>2143</v>
@@ -3121,13 +3127,13 @@
         <v>1647404</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>3668</v>
@@ -3136,13 +3142,13 @@
         <v>3348074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3204,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F689FBC0-9B39-4EA3-BC0F-E56E5BBC2234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{512D3781-35CD-4011-A518-FFA65E582954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{145E14A6-B27B-45A6-804D-0D34A4636296}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7A984F06-7511-47D1-BE38-AC90F8EDCFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="235">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>991.0</t>
@@ -77,16 +77,13 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,39 +95,15 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -146,27 +119,15 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -200,28 +161,10 @@
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -239,691 +182,568 @@
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>52,85%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
   </si>
   <si>
     <t>47,15%</t>
   </si>
   <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A0ED8-D3D8-486E-BA42-F0DBF42F7B51}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC43B40-E3A5-4AB7-AD2F-C87175CD6428}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1453,10 +1273,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1468,31 +1288,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1501,7 +1321,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1510,49 +1330,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1561,43 +1381,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1621,10 +1441,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1636,10 +1456,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1653,52 +1473,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1707,7 +1527,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1716,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1731,13 +1551,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1746,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1767,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1782,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1797,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1827,10 +1647,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1842,10 +1662,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1859,52 +1679,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1913,7 +1733,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1922,29 +1742,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1952,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1973,29 +1793,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
@@ -2003,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2033,10 +1853,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2048,10 +1868,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2065,52 +1885,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D16" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I16" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N16" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2119,7 +1939,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2128,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2143,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2158,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2179,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2194,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2209,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -2239,10 +2059,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -2254,10 +2074,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2271,52 +2091,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I20" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -2325,7 +2145,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2334,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2349,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2364,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2385,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2400,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2415,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2445,10 +2265,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2460,10 +2280,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2476,222 +2296,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2704,8 +2317,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00870B9-1CB5-48F5-BA9C-278748049E29}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47783194-3941-48CC-AEAE-F9B288A23ED2}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2721,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2822,46 +2435,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D4" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2870,7 +2483,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2879,14 +2492,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2894,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2909,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2930,14 +2543,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -2945,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2960,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2990,10 +2603,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -3005,10 +2618,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -3022,52 +2635,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -3076,7 +2689,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3085,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3100,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3115,19 +2728,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3136,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3151,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3166,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -3196,10 +2809,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -3211,10 +2824,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -3228,52 +2841,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -3282,7 +2895,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3291,14 +2904,14 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -3306,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3321,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3342,14 +2955,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3357,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3372,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,10 +3000,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3402,10 +3015,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3417,10 +3030,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3434,52 +3047,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D16" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I16" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N16" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3488,7 +3101,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3497,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3512,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3527,19 +3140,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3548,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3563,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3578,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,10 +3206,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -3608,10 +3221,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -3623,10 +3236,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -3640,52 +3253,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D20" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I20" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N20" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -3694,7 +3307,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3703,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3718,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3733,19 +3346,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3754,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3769,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3784,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -3814,10 +3427,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -3829,10 +3442,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -3845,222 +3458,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4073,8 +3479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBFBA40-5D8B-41C3-9871-E74039CE5FC9}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE3577-12DA-4954-A5C9-259F10D8D660}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4090,7 +3496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4197,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4212,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4227,115 +3633,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
+        <v>326</v>
+      </c>
+      <c r="D5" s="7">
+        <v>332437</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7">
+        <v>404</v>
+      </c>
+      <c r="I5" s="7">
+        <v>412159</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="7">
-        <v>53935</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="7">
-        <v>71</v>
-      </c>
-      <c r="I5" s="7">
-        <v>70014</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7">
-        <v>123</v>
+        <v>730</v>
       </c>
       <c r="N5" s="7">
-        <v>123949</v>
+        <v>744596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
+        <v>326</v>
+      </c>
+      <c r="D6" s="7">
+        <v>342363</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7">
+        <v>262</v>
+      </c>
+      <c r="I6" s="7">
+        <v>260680</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="7">
-        <v>62611</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>43346</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
-        <v>105</v>
+        <v>588</v>
       </c>
       <c r="N6" s="7">
-        <v>105957</v>
+        <v>603043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4359,10 +3765,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4374,10 +3780,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4391,7 +3797,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4403,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4418,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4433,115 +3839,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="D9" s="7">
-        <v>278501</v>
+        <v>454680</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7">
-        <v>333</v>
+        <v>541</v>
       </c>
       <c r="I9" s="7">
-        <v>342145</v>
+        <v>586986</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="M9" s="7">
-        <v>607</v>
+        <v>969</v>
       </c>
       <c r="N9" s="7">
-        <v>620646</v>
+        <v>1041666</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>265</v>
+        <v>523</v>
       </c>
       <c r="D10" s="7">
-        <v>279753</v>
+        <v>567751</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="I10" s="7">
-        <v>217334</v>
+        <v>455927</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>483</v>
+        <v>959</v>
       </c>
       <c r="N10" s="7">
-        <v>497087</v>
+        <v>1023678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4565,10 +3971,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4580,10 +3986,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4597,7 +4003,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4609,14 +4015,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -4624,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4639,115 +4045,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="D13" s="7">
-        <v>454680</v>
+        <v>352014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="I13" s="7">
-        <v>586986</v>
+        <v>469220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
-        <v>969</v>
+        <v>756</v>
       </c>
       <c r="N13" s="7">
-        <v>1041666</v>
+        <v>821234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>523</v>
+        <v>373</v>
       </c>
       <c r="D14" s="7">
-        <v>567751</v>
+        <v>407538</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>436</v>
+        <v>303</v>
       </c>
       <c r="I14" s="7">
-        <v>455927</v>
+        <v>315791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>959</v>
+        <v>676</v>
       </c>
       <c r="N14" s="7">
-        <v>1023678</v>
+        <v>723329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,10 +4162,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4771,10 +4177,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4786,10 +4192,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4803,7 +4209,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4815,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4830,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4845,115 +4251,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="D17" s="7">
-        <v>352014</v>
+        <v>439620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="I17" s="7">
-        <v>469220</v>
+        <v>556399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>756</v>
+        <v>942</v>
       </c>
       <c r="N17" s="7">
-        <v>821234</v>
+        <v>996019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>373</v>
+        <v>490</v>
       </c>
       <c r="D18" s="7">
-        <v>407538</v>
+        <v>497947</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>303</v>
+        <v>459</v>
       </c>
       <c r="I18" s="7">
-        <v>315791</v>
+        <v>487380</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>676</v>
+        <v>949</v>
       </c>
       <c r="N18" s="7">
-        <v>723329</v>
+        <v>985327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4977,10 +4383,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4992,10 +4398,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -5009,7 +4415,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5021,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5036,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5051,115 +4457,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>442</v>
+        <v>1519</v>
       </c>
       <c r="D21" s="7">
-        <v>439620</v>
+        <v>1578751</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
-        <v>500</v>
+        <v>1878</v>
       </c>
       <c r="I21" s="7">
-        <v>556399</v>
+        <v>2024764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
-        <v>942</v>
+        <v>3397</v>
       </c>
       <c r="N21" s="7">
-        <v>996019</v>
+        <v>3603515</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>490</v>
+        <v>1712</v>
       </c>
       <c r="D22" s="7">
-        <v>497947</v>
+        <v>1815599</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
-        <v>459</v>
+        <v>1460</v>
       </c>
       <c r="I22" s="7">
-        <v>487380</v>
+        <v>1519778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
-        <v>949</v>
+        <v>3172</v>
       </c>
       <c r="N22" s="7">
-        <v>985327</v>
+        <v>3335377</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,10 +4574,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5183,10 +4589,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -5198,10 +4604,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -5214,222 +4620,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1519</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1578751</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1878</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2024764</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3397</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3603515</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1712</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1815599</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1460</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1519778</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3172</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3335377</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5442,8 +4641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1586DA-7966-4FAC-8B22-4C625FA10E63}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF6D346-6849-4F56-B3D0-90B3FAE089D7}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5459,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5566,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5581,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5596,115 +4795,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>424</v>
       </c>
       <c r="D5" s="7">
-        <v>43269</v>
+        <v>327805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
-        <v>141</v>
+        <v>745</v>
       </c>
       <c r="I5" s="7">
-        <v>71300</v>
+        <v>381614</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
-        <v>196</v>
+        <v>1169</v>
       </c>
       <c r="N5" s="7">
-        <v>114569</v>
+        <v>709419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="D6" s="7">
-        <v>58713</v>
+        <v>307636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>493</v>
       </c>
       <c r="I6" s="7">
-        <v>59433</v>
+        <v>293622</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="M6" s="7">
-        <v>165</v>
+        <v>799</v>
       </c>
       <c r="N6" s="7">
-        <v>118146</v>
+        <v>601258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -5728,10 +4927,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>675236</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -5743,10 +4942,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1310677</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -5760,7 +4959,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5772,13 +4971,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5787,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5802,115 +5001,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>369</v>
+        <v>522</v>
       </c>
       <c r="D9" s="7">
-        <v>291971</v>
+        <v>722059</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
-        <v>604</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>334553</v>
+        <v>559657</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
-        <v>973</v>
+        <v>1461</v>
       </c>
       <c r="N9" s="7">
-        <v>626523</v>
+        <v>1281716</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>243</v>
+        <v>441</v>
       </c>
       <c r="D10" s="7">
-        <v>257852</v>
+        <v>469815</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
-        <v>391</v>
+        <v>576</v>
       </c>
       <c r="I10" s="7">
-        <v>257840</v>
+        <v>397528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
-        <v>634</v>
+        <v>1017</v>
       </c>
       <c r="N10" s="7">
-        <v>515693</v>
+        <v>867343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,10 +5118,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1191874</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -5934,10 +5133,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>995</v>
+        <v>1515</v>
       </c>
       <c r="I11" s="7">
-        <v>592393</v>
+        <v>957185</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -5949,10 +5148,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>2478</v>
       </c>
       <c r="N11" s="7">
-        <v>1142216</v>
+        <v>2149059</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -5966,7 +5165,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5978,14 +5177,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -5993,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6008,115 +5207,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>522</v>
+        <v>315</v>
       </c>
       <c r="D13" s="7">
-        <v>539742</v>
+        <v>286919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>939</v>
+        <v>545</v>
       </c>
       <c r="I13" s="7">
-        <v>611589</v>
+        <v>537172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>1461</v>
+        <v>860</v>
       </c>
       <c r="N13" s="7">
-        <v>1151331</v>
+        <v>824090</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="D14" s="7">
-        <v>498476</v>
+        <v>416718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="I14" s="7">
-        <v>446911</v>
+        <v>394796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
-        <v>1017</v>
+        <v>859</v>
       </c>
       <c r="N14" s="7">
-        <v>945386</v>
+        <v>811514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,10 +5324,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1038218</v>
+        <v>703637</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6140,10 +5339,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1515</v>
+        <v>1044</v>
       </c>
       <c r="I15" s="7">
-        <v>1058500</v>
+        <v>931968</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6155,10 +5354,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2478</v>
+        <v>1719</v>
       </c>
       <c r="N15" s="7">
-        <v>2096717</v>
+        <v>1635604</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6172,7 +5371,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6184,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6199,13 +5398,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6214,115 +5413,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>315</v>
+        <v>587</v>
       </c>
       <c r="D17" s="7">
-        <v>297552</v>
+        <v>490040</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
-        <v>545</v>
+        <v>982</v>
       </c>
       <c r="I17" s="7">
-        <v>468453</v>
+        <v>609811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
-        <v>860</v>
+        <v>1569</v>
       </c>
       <c r="N17" s="7">
-        <v>766006</v>
+        <v>1099851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="D18" s="7">
-        <v>430094</v>
+        <v>435509</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="H18" s="7">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="I18" s="7">
-        <v>404393</v>
+        <v>482106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="M18" s="7">
-        <v>859</v>
+        <v>993</v>
       </c>
       <c r="N18" s="7">
-        <v>834486</v>
+        <v>917615</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,10 +5530,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="7">
-        <v>727646</v>
+        <v>925549</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -6346,10 +5545,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1044</v>
+        <v>1557</v>
       </c>
       <c r="I19" s="7">
-        <v>872846</v>
+        <v>1091917</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -6361,10 +5560,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1719</v>
+        <v>2562</v>
       </c>
       <c r="N19" s="7">
-        <v>1600492</v>
+        <v>2017466</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -6378,7 +5577,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6390,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6405,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6420,115 +5619,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>587</v>
+        <v>1848</v>
       </c>
       <c r="D21" s="7">
-        <v>508803</v>
+        <v>1826823</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7">
-        <v>982</v>
+        <v>3211</v>
       </c>
       <c r="I21" s="7">
-        <v>668370</v>
+        <v>2088253</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="M21" s="7">
-        <v>1569</v>
+        <v>5059</v>
       </c>
       <c r="N21" s="7">
-        <v>1177174</v>
+        <v>3915075</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>418</v>
+        <v>1525</v>
       </c>
       <c r="D22" s="7">
-        <v>455536</v>
+        <v>1629678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
-        <v>575</v>
+        <v>2143</v>
       </c>
       <c r="I22" s="7">
-        <v>478827</v>
+        <v>1568052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
-        <v>993</v>
+        <v>3668</v>
       </c>
       <c r="N22" s="7">
-        <v>934363</v>
+        <v>3197731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,10 +5736,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>3373</v>
       </c>
       <c r="D23" s="7">
-        <v>964339</v>
+        <v>3456501</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6552,10 +5751,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1557</v>
+        <v>5354</v>
       </c>
       <c r="I23" s="7">
-        <v>1147197</v>
+        <v>3656305</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6567,10 +5766,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>2562</v>
+        <v>8727</v>
       </c>
       <c r="N23" s="7">
-        <v>2111537</v>
+        <v>7112806</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6583,222 +5782,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1848</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1681338</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3211</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2154264</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5059</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3835602</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1525</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1700670</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2143</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1647404</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3668</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3348074</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3382008</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3801668</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7183676</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
